--- a/xlsx/人类基因组计划_intext.xlsx
+++ b/xlsx/人类基因组计划_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维特鲁威人</t>
   </si>
   <si>
-    <t>政策_政策_美國_人类基因组计划</t>
+    <t>政策_政策_美国_人类基因组计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%83%BD%E6%BA%90%E9%83%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%80%8D%E9%AB%94</t>
   </si>
   <si>
-    <t>單倍體</t>
+    <t>单倍体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%8B%B7%E9%85%B8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%9F%BA%E5%9B%A0%E7%B5%84</t>
   </si>
   <si>
-    <t>人類基因組</t>
+    <t>人类基因组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9B%B7%E6%8B%89%E5%9F%BA%E5%9B%A0%E7%B5%84</t>
   </si>
   <si>
-    <t>塞雷拉基因組</t>
+    <t>塞雷拉基因组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%A1%9B%E7%94%9F%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國家衛生研究院</t>
+    <t>美国国家卫生研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E6%9F%AF%E6%9E%97%E6%96%AF</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%A0%BC%C2%B7%E5%87%A1%E7%89%B9</t>
   </si>
   <si>
-    <t>克萊格·凡特</t>
+    <t>克莱格·凡特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B0%E5%BD%88%E6%A7%8D%E5%AE%9A%E5%BA%8F%E6%B3%95</t>
   </si>
   <si>
-    <t>霰彈槍定序法</t>
+    <t>霰弹枪定序法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E6%B3%95</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%A0%B8%E8%8B%B7%E9%85%B8%E5%A4%9A%E6%85%8B%E6%80%A7</t>
   </si>
   <si>
-    <t>單核苷酸多態性</t>
+    <t>单核苷酸多态性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CDNA</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%8F%8C%E4%BA%BA%E5%B7%A5%E6%9F%93%E8%89%B2%E9%AB%94</t>
   </si>
   <si>
-    <t>細菌人工染色體</t>
+    <t>细菌人工染色体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9D%80%E4%B8%9D%E7%B2%92</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%B7%A8%E7%A2%BCDNA</t>
   </si>
   <si>
-    <t>非編碼DNA</t>
+    <t>非编码DNA</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E5%B0%94</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%AA%A2%E6%B8%AC</t>
   </si>
   <si>
-    <t>基因檢測</t>
+    <t>基因检测</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E8%85%BA%E7%99%8C</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%9F%BA%E5%9B%A0%E7%B5%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>元基因組學</t>
+    <t>元基因组学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Functional_genomics</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E6%80%A7%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>遺傳性疾病</t>
+    <t>遗传性疾病</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personalized_medicine</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96%E6%80%9D%E6%83%B3%E5%8F%B2</t>
   </si>
   <si>
-    <t>演化論思想史</t>
+    <t>演化论思想史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_ecology</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>分子生物學史</t>
+    <t>分子生物学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_RNA_biology</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%B3%89%E6%B8%AF%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>冷泉港實驗室</t>
+    <t>冷泉港实验室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stazione_Zoologica</t>
@@ -1187,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛克菲勒大學</t>
+    <t>洛克菲勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%85%B9%E9%9C%8D%E5%B0%94%E6%B5%B7%E6%B4%8B%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E8%8F%B2%E6%96%AF%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>格里菲斯實驗</t>
+    <t>格里菲斯实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92-%E5%B0%A4%E9%87%8C%E5%AE%9E%E9%AA%8C</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E9%8E%96%E9%8F%88</t>
   </si>
   <si>
-    <t>存在鎖鏈</t>
+    <t>存在锁链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A9%AC%E5%85%8B%E5%AD%A6%E8%AF%B4</t>
@@ -1277,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>達爾文主義</t>
+    <t>达尔文主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Germ_theory_of_disease</t>
@@ -1295,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%88%9D%E7%94%9F%E5%91%BD%E9%AB%94</t>
   </si>
   <si>
-    <t>原初生命體</t>
+    <t>原初生命体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sequence_hypothesis</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8%E7%9A%84%E4%B8%AD%E5%BF%83%E6%B3%95%E5%89%87</t>
   </si>
   <si>
-    <t>分子生物學的中心法則</t>
+    <t>分子生物学的中心法则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RNA%E4%B8%96%E7%95%8C%E5%AD%A6%E8%AF%B4</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%A5%A7%E5%BC%97%E6%8B%89%E6%96%AF%E6%89%98%E6%96%AF</t>
   </si>
   <si>
-    <t>泰奧弗拉斯托斯</t>
+    <t>泰奥弗拉斯托斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%BF%97</t>
@@ -1421,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>自然系統</t>
+    <t>自然系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%B8%B0</t>
@@ -1439,13 +1439,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>動物哲學</t>
+    <t>动物哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%B1%85%E7%B6%AD%E8%91%89</t>
   </si>
   <si>
-    <t>喬治·居維葉</t>
+    <t>乔治·居维叶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Le_R%C3%A8gne_Animal</t>
@@ -1463,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E8%90%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>查爾斯·萊爾</t>
+    <t>查尔斯·莱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6%E5%8E%9F%E7%90%86</t>
@@ -1589,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BC%AF%E9%A0%93%C2%B7%E6%A1%91%E5%BE%B7%E6%A3%AE%C2%B7%E9%9C%8D%E7%88%BE%E4%B8%B9</t>
   </si>
   <si>
-    <t>約翰·伯頓·桑德森·霍爾丹</t>
+    <t>约翰·伯顿·桑德森·霍尔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%8E%84%E5%B0%94%C2%B7%E8%B5%96%E7%89%B9</t>
@@ -1601,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E8%B2%BB%E9%9B%AA</t>
   </si>
   <si>
-    <t>羅納德·費雪</t>
+    <t>罗纳德·费雪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Correlation_between_Relatives_on_the_Supposition_of_Mendelian_Inheritance</t>
@@ -1619,13 +1619,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%8B%89%E5%BE%B7%C2%B7%E5%8B%9E%E5%80%AB%E8%8C%B2</t>
   </si>
   <si>
-    <t>康拉德·勞倫茲</t>
+    <t>康拉德·劳伦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E9%BA%A5%E5%85%8B%E6%9E%97%E6%89%98%E5%85%8B</t>
   </si>
   <si>
-    <t>芭芭拉·麥克林托克</t>
+    <t>芭芭拉·麦克林托克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%A5%A5%E5%A4%9A%E8%A5%BF%C2%B7%E5%A4%9A%E5%B8%83%E7%84%B6%E6%96%AF%E5%9F%BA</t>
@@ -1673,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%85%B8%E5%88%86%E5%AD%90%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>核酸分子結構</t>
+    <t>核酸分子结构</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sickle_Cell_Anemia,_a_Molecular_Disease</t>
@@ -1715,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%C2%B7%E5%90%89%E7%88%BE%E4%BC%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>沃特·吉爾伯特</t>
+    <t>沃特·吉尔伯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%88%A9%C2%B7%E7%A9%86%E5%88%A9%E6%96%AF</t>
@@ -1787,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_creationism</t>
